--- a/biology/Médecine/Hôpital_européen_de_Marseille/Hôpital_européen_de_Marseille.xlsx
+++ b/biology/Médecine/Hôpital_européen_de_Marseille/Hôpital_européen_de_Marseille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_europ%C3%A9en_de_Marseille</t>
+          <t>Hôpital_européen_de_Marseille</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Hôpital européen, est un hôpital privé à but non lucratif de Marseille situé dans le 3e arrondissement, dans le quartier de La Villette. 
-D'une capacité de 563 lits et places de court et long séjour, l'hôpital accueille la quasi-totalité des spécialités médicales et chirurgicales[1].
-L'Hôpital européen a ouvert ses portes le 19 aout 2013 et remplace les hôpitaux Ambroise-Paré et Paul-Desbief qui accueillaient 25 000 patients par an[2].
+D'une capacité de 563 lits et places de court et long séjour, l'hôpital accueille la quasi-totalité des spécialités médicales et chirurgicales.
+L'Hôpital européen a ouvert ses portes le 19 aout 2013 et remplace les hôpitaux Ambroise-Paré et Paul-Desbief qui accueillaient 25 000 patients par an.
 </t>
         </is>
       </c>
